--- a/Data/All_Groups_Disease.xlsx
+++ b/Data/All_Groups_Disease.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Stack\Stage SYRCLE\R\Research\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\Research\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB510087-AE1B-455D-85A3-BF1F6FA7A782}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7550EB70-55AA-431E-94FF-42A37E6CC775}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="106">
   <si>
     <t>group</t>
   </si>
@@ -37,16 +37,10 @@
     <t>C</t>
   </si>
   <si>
-    <t>C16</t>
-  </si>
-  <si>
-    <t>C22</t>
-  </si>
-  <si>
-    <t>C83</t>
-  </si>
-  <si>
-    <t>C91</t>
+    <t>C49</t>
+  </si>
+  <si>
+    <t>C67</t>
   </si>
   <si>
     <t>D</t>
@@ -67,9 +61,6 @@
     <t>H</t>
   </si>
   <si>
-    <t>H35</t>
-  </si>
-  <si>
     <t>I</t>
   </si>
   <si>
@@ -103,9 +94,15 @@
     <t>B24</t>
   </si>
   <si>
+    <t>C16.9</t>
+  </si>
+  <si>
     <t>C18.9</t>
   </si>
   <si>
+    <t>C22.9</t>
+  </si>
+  <si>
     <t>C25.9</t>
   </si>
   <si>
@@ -124,18 +121,27 @@
     <t>C61</t>
   </si>
   <si>
+    <t>C64</t>
+  </si>
+  <si>
     <t>C71.9</t>
   </si>
   <si>
     <t>C80.9</t>
   </si>
   <si>
+    <t>C83.3</t>
+  </si>
+  <si>
     <t>C85.9</t>
   </si>
   <si>
     <t>C90.0</t>
   </si>
   <si>
+    <t>C91.1</t>
+  </si>
+  <si>
     <t>C94.2</t>
   </si>
   <si>
@@ -145,12 +151,24 @@
     <t>E11.9</t>
   </si>
   <si>
+    <t>F17.2</t>
+  </si>
+  <si>
     <t>F33.9</t>
   </si>
   <si>
     <t>G30.9</t>
   </si>
   <si>
+    <t>H35.3</t>
+  </si>
+  <si>
+    <t>I50.9</t>
+  </si>
+  <si>
+    <t>I64</t>
+  </si>
+  <si>
     <t>J11.1</t>
   </si>
   <si>
@@ -166,33 +184,96 @@
     <t>R52.9</t>
   </si>
   <si>
-    <t>disease</t>
+    <t>Infectious and Parasitic Disease</t>
   </si>
   <si>
     <t>Cancer, Other</t>
   </si>
   <si>
+    <t>Viral Hepatitis C</t>
+  </si>
+  <si>
+    <t>HIV</t>
+  </si>
+  <si>
+    <t>Cancer, Stomach</t>
+  </si>
+  <si>
     <t>Cancer, Colon</t>
   </si>
   <si>
+    <t>Cancer, Liver</t>
+  </si>
+  <si>
+    <t>Cancer, Pancreas</t>
+  </si>
+  <si>
     <t>Cancer, Lung</t>
   </si>
   <si>
+    <t>Cancer, Skin</t>
+  </si>
+  <si>
     <t>Cancer, Breast</t>
   </si>
   <si>
+    <t>Cancer, Ovary</t>
+  </si>
+  <si>
     <t>Cancer, Prostate</t>
   </si>
   <si>
+    <t>Cancer, Brain</t>
+  </si>
+  <si>
     <t>Cancer, Unspecified</t>
   </si>
   <si>
+    <t>Cancer, Lymphoma Unspecified</t>
+  </si>
+  <si>
+    <t>Cancer, Multiple Myeloma</t>
+  </si>
+  <si>
+    <t>Cancer, Acute Myeloid Leukaemia</t>
+  </si>
+  <si>
+    <t>Cancer, Leukaemia Unspecified</t>
+  </si>
+  <si>
+    <t>Blood &amp; Blood - forming organs</t>
+  </si>
+  <si>
+    <t>Endocrine, Nutritional, and Metabolic Disorders</t>
+  </si>
+  <si>
+    <t>Diabetes Mellitus Type 2</t>
+  </si>
+  <si>
+    <t>Diabetes Mellitus, Unspecified</t>
+  </si>
+  <si>
+    <t>Mental and Behavioural Disorders</t>
+  </si>
+  <si>
     <t>Depression</t>
   </si>
   <si>
+    <t>Nervous System</t>
+  </si>
+  <si>
     <t>Alzheimer</t>
   </si>
   <si>
+    <t>Eye, Adnexa, Ear, and Mastoid process disorders</t>
+  </si>
+  <si>
+    <t>Circulatory System Disorders</t>
+  </si>
+  <si>
+    <t>Respiratory System Disorders</t>
+  </si>
+  <si>
     <t>Influenza</t>
   </si>
   <si>
@@ -202,109 +283,61 @@
     <t>Asthma</t>
   </si>
   <si>
+    <t>Digestive System Disorders</t>
+  </si>
+  <si>
+    <t>Skin and Subcutaneous System Disorders</t>
+  </si>
+  <si>
+    <t>Psoriasis</t>
+  </si>
+  <si>
+    <t>Muscoskeletal and Connective Tissue Disorders</t>
+  </si>
+  <si>
+    <t>Rheumatoid Arthritis</t>
+  </si>
+  <si>
+    <t>Genitourinary System Disorders</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Pain, Unspecified</t>
+  </si>
+  <si>
+    <t>Injury, Poisoning, and Effects of External Causes</t>
+  </si>
+  <si>
     <t>Could not be assigned ICD-10 Code</t>
   </si>
   <si>
-    <t>HIV</t>
-  </si>
-  <si>
-    <t>Viral Hepatitis C</t>
-  </si>
-  <si>
-    <t>Pain, Unspecified</t>
-  </si>
-  <si>
-    <t>Retinal Disorders</t>
-  </si>
-  <si>
-    <t>Infectious and Parasitic Disease</t>
-  </si>
-  <si>
-    <t>Cancer, Stomach</t>
-  </si>
-  <si>
-    <t>Cancer, Liver</t>
-  </si>
-  <si>
-    <t>Cancer, Non-follicular lymphoma</t>
-  </si>
-  <si>
-    <t>Cancer, Lymphoid leukaemia</t>
-  </si>
-  <si>
-    <t>Blood &amp; Blood - forming organs</t>
-  </si>
-  <si>
-    <t>Endocrine, Nutritional, and Metabolic Disorders</t>
-  </si>
-  <si>
-    <t>Diabetes Mellitus, Unspecified</t>
-  </si>
-  <si>
-    <t>Mental and Behavioural Disorders</t>
-  </si>
-  <si>
-    <t>Nervous System</t>
-  </si>
-  <si>
-    <t>Eye, Adnexa, Ear, and Mastoid process disorders</t>
-  </si>
-  <si>
-    <t>Circulatory System Disorders</t>
-  </si>
-  <si>
-    <t>Respiratory System Disorders</t>
-  </si>
-  <si>
-    <t>Digestive System Disorders</t>
-  </si>
-  <si>
-    <t>Skin and Subcutaneous System Disorders</t>
-  </si>
-  <si>
-    <t>Psoriasis</t>
-  </si>
-  <si>
-    <t>Muscoskeletal and Connective Tissue Disorders</t>
-  </si>
-  <si>
-    <t>Genitourinary System Disorders</t>
-  </si>
-  <si>
-    <t>Injury, Poisoning, and Effects of External Causes</t>
-  </si>
-  <si>
-    <t>Cancer, Pancreas</t>
-  </si>
-  <si>
-    <t>Cancer, Skin</t>
-  </si>
-  <si>
-    <t>Cancer, Ovary</t>
-  </si>
-  <si>
-    <t>Cancer, Brain</t>
-  </si>
-  <si>
-    <t>Cancer, Lymphoma Unspecified</t>
-  </si>
-  <si>
-    <t>Cancer, Multiple Myeloma</t>
-  </si>
-  <si>
-    <t>Cancer, Acute Myeloid Leukaemia</t>
-  </si>
-  <si>
-    <t>Cancer, Leukaemia Unspecified</t>
-  </si>
-  <si>
-    <t>Diabetes Mellitus Type 2</t>
-  </si>
-  <si>
-    <t>Rheumatoid Arthritis</t>
-  </si>
-  <si>
-    <t>NA</t>
+    <t>Cancer, Connective and Soft Tissue</t>
+  </si>
+  <si>
+    <t>Cancer, Kidney</t>
+  </si>
+  <si>
+    <t>Cancer, Bladder</t>
+  </si>
+  <si>
+    <t>Cancer, Diffuse Large B-Cell Lymphoma</t>
+  </si>
+  <si>
+    <t>Cancer, Chronic Lymphocytic B-Cell Leukaemia</t>
+  </si>
+  <si>
+    <t>Tobacco Addiction</t>
+  </si>
+  <si>
+    <t>Macular Degeneration</t>
+  </si>
+  <si>
+    <t>Heart Failure</t>
+  </si>
+  <si>
+    <t>Stroke</t>
   </si>
 </sst>
 </file>
@@ -699,10 +732,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C48"/>
+  <dimension ref="A1:C54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -714,19 +747,16 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>48</v>
-      </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -734,508 +764,578 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="C3" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="B4">
-        <v>264</v>
+        <v>112</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B5">
-        <v>67</v>
+        <v>138</v>
       </c>
       <c r="C5" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>58</v>
+        <v>234</v>
       </c>
       <c r="C6" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="B7">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="C7" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="B8">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="C8" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="B9">
-        <v>98</v>
+        <v>62</v>
       </c>
       <c r="C9" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="B10">
-        <v>212</v>
+        <v>104</v>
       </c>
       <c r="C10" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="B11">
-        <v>51</v>
+        <v>298</v>
       </c>
       <c r="C11" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="B12">
-        <v>249</v>
+        <v>131</v>
       </c>
       <c r="C12" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B13">
-        <v>213</v>
+        <v>50</v>
       </c>
       <c r="C13" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="B14">
-        <v>91</v>
+        <v>289</v>
       </c>
       <c r="C14" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="B15">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="C15" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="B16">
-        <v>173</v>
+        <v>196</v>
       </c>
       <c r="C16" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="B17">
         <v>57</v>
       </c>
       <c r="C17" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B18">
-        <v>153</v>
+        <v>50</v>
       </c>
       <c r="C18" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="B19">
-        <v>65</v>
+        <v>127</v>
       </c>
       <c r="C19" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="B20">
-        <v>66</v>
+        <v>197</v>
       </c>
       <c r="C20" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="B21">
-        <v>114</v>
+        <v>51</v>
       </c>
       <c r="C21" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="B22">
-        <v>68</v>
+        <v>113</v>
       </c>
       <c r="C22" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B23">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="C23" t="s">
-        <v>23</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="B24">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C24" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="B25">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="C25" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="B26">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="C26" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="B27">
-        <v>83</v>
+        <v>135</v>
       </c>
       <c r="C27" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="B28">
-        <v>86</v>
+        <v>292</v>
       </c>
       <c r="C28" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="B29">
-        <v>231</v>
+        <v>129</v>
       </c>
       <c r="C29" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="B30">
-        <v>115</v>
+        <v>60</v>
       </c>
       <c r="C30" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="B31">
-        <v>219</v>
+        <v>247</v>
       </c>
       <c r="C31" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="B32">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C32" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="B33">
-        <v>152</v>
+        <v>67</v>
       </c>
       <c r="C33" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="B34">
-        <v>91</v>
+        <v>271</v>
       </c>
       <c r="C34" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="B35">
-        <v>143</v>
+        <v>62</v>
       </c>
       <c r="C35" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="B36">
-        <v>77</v>
+        <v>128</v>
       </c>
       <c r="C36" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B37">
-        <v>111</v>
+        <v>53</v>
       </c>
       <c r="C37" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="B38">
-        <v>58</v>
+        <v>135</v>
       </c>
       <c r="C38" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="B39">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="C39" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B40">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="C40" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="B41">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="C41" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B42">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="C42" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B43">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="C43" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B44">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="C44" t="s">
-        <v>58</v>
+        <v>86</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="B45">
-        <v>79</v>
+        <v>173</v>
       </c>
       <c r="C45" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="B46">
-        <v>59</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>93</v>
+        <v>72</v>
+      </c>
+      <c r="C46" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="B47">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="C47" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
+        <v>18</v>
+      </c>
+      <c r="B48">
+        <v>132</v>
+      </c>
+      <c r="C48" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>52</v>
+      </c>
+      <c r="B49">
+        <v>69</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>19</v>
+      </c>
+      <c r="B50">
+        <v>92</v>
+      </c>
+      <c r="C50" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>20</v>
+      </c>
+      <c r="B51">
+        <v>149</v>
+      </c>
+      <c r="C51" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52">
+        <v>76</v>
+      </c>
+      <c r="C52" t="s">
         <v>94</v>
       </c>
-      <c r="B48">
-        <v>208</v>
-      </c>
-      <c r="C48" t="s">
-        <v>60</v>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>21</v>
+      </c>
+      <c r="B53">
+        <v>69</v>
+      </c>
+      <c r="C53" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>93</v>
+      </c>
+      <c r="B54">
+        <v>266</v>
+      </c>
+      <c r="C54" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C54">
+    <sortCondition ref="A2:A54"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Data/All_Groups_Disease.xlsx
+++ b/Data/All_Groups_Disease.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\Research\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7550EB70-55AA-431E-94FF-42A37E6CC775}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1717C774-C274-4A24-B0AD-7F099E0837C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="11184" yWindow="4932" windowWidth="16692" windowHeight="9228" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="107">
   <si>
     <t>group</t>
   </si>
@@ -338,6 +338,9 @@
   </si>
   <si>
     <t>Stroke</t>
+  </si>
+  <si>
+    <t>Disease</t>
   </si>
 </sst>
 </file>
@@ -734,8 +737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -746,6 +749,9 @@
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
